--- a/yas.xlsx
+++ b/yas.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="4">
   <si>
     <t>Code</t>
   </si>
@@ -356,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,1363 +579,1363 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
+      <c r="A27" s="2">
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>44065892</v>
+        <v>4714069</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
+      <c r="A28" s="2">
+        <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>44316225</v>
+        <v>4716664</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
+      <c r="A29" s="2">
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>46041435</v>
+        <v>4717265</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
+      <c r="A30" s="2">
+        <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>46043656</v>
+        <v>4718108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
+      <c r="A31" s="2">
+        <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>46044394</v>
+        <v>4722704</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
+      <c r="A32" s="2">
+        <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>46046129</v>
+        <v>4726878</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
+      <c r="A33" s="2">
+        <v>45</v>
       </c>
       <c r="B33" s="1">
-        <v>46046919</v>
+        <v>2284187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
+      <c r="A34" s="2">
+        <v>45</v>
       </c>
       <c r="B34" s="1">
-        <v>46048996</v>
+        <v>2286837</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>3</v>
+      <c r="A35" s="2">
+        <v>45</v>
       </c>
       <c r="B35" s="1">
-        <v>46049458</v>
+        <v>2289468</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
+      <c r="A36" s="2">
+        <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>46055166</v>
+        <v>2360471</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
+      <c r="A37" s="2">
+        <v>45</v>
       </c>
       <c r="B37" s="1">
-        <v>46064538</v>
+        <v>2487042</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>3</v>
+      <c r="A38" s="2">
+        <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>46132944</v>
+        <v>2502299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>3</v>
+      <c r="A39" s="2">
+        <v>45</v>
       </c>
       <c r="B39" s="1">
-        <v>46138869</v>
+        <v>2504044</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>3</v>
+      <c r="A40" s="2">
+        <v>45</v>
       </c>
       <c r="B40" s="1">
-        <v>48046647</v>
+        <v>2504934</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
+      <c r="A41" s="2">
+        <v>45</v>
       </c>
       <c r="B41" s="1">
-        <v>48047095</v>
+        <v>2506452</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
-        <v>2021365</v>
+        <v>2508169</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>2040279</v>
+        <v>2560799</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>2060730</v>
+        <v>2562338</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>2063272</v>
+        <v>2565455</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>2125821</v>
+        <v>2569562</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>2125923</v>
+        <v>2962852</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>2570415</v>
+        <v>3118109</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
-        <v>2572838</v>
+        <v>3170300</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1">
-        <v>2573931</v>
+        <v>3260659</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1">
-        <v>2591736</v>
+        <v>3480478</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
-        <v>2627226</v>
+        <v>3526435</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1">
-        <v>2884543</v>
+        <v>3743476</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1">
-        <v>2916368</v>
+        <v>3750212</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1">
-        <v>2917386</v>
+        <v>3751773</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1">
-        <v>3101757</v>
+        <v>3761707</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1">
-        <v>3102585</v>
+        <v>3763712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1">
-        <v>3329838</v>
+        <v>3824820</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1">
-        <v>3512780</v>
+        <v>3840407</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1">
-        <v>3515553</v>
+        <v>2548354</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
-        <v>3515759</v>
+        <v>3402333</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1">
-        <v>3516590</v>
+        <v>3403222</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>3516816</v>
+        <v>2117630</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1">
-        <v>3517525</v>
+        <v>2140465</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1">
-        <v>3517809</v>
+        <v>2270639</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1">
-        <v>3518076</v>
+        <v>2276492</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B67" s="1">
-        <v>3518185</v>
+        <v>2295553</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B68" s="1">
-        <v>3519392</v>
+        <v>2295584</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B69" s="1">
-        <v>3519772</v>
+        <v>2295932</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1">
-        <v>3520056</v>
+        <v>2296442</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B71" s="1">
-        <v>3521485</v>
+        <v>2299587</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B72" s="1">
-        <v>3522079</v>
+        <v>2386090</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B73" s="1">
-        <v>3522141</v>
+        <v>2501463</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1">
-        <v>3522477</v>
+        <v>2501771</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B75" s="1">
-        <v>3522954</v>
+        <v>2503323</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B76" s="1">
-        <v>3523121</v>
+        <v>2504453</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1">
-        <v>3523182</v>
+        <v>2505676</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1">
-        <v>3523360</v>
+        <v>2771522</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B79" s="1">
-        <v>3523405</v>
+        <v>2772951</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B80" s="1">
-        <v>3523632</v>
+        <v>3302443</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1">
-        <v>3523816</v>
+        <v>3311894</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1">
-        <v>3524156</v>
+        <v>3347021</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B83" s="1">
-        <v>3542129</v>
+        <v>3351274</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B84" s="1">
-        <v>3555367</v>
+        <v>3351741</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B85" s="1">
-        <v>3598364</v>
+        <v>3353135</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B86" s="1">
-        <v>4360130</v>
+        <v>3353171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B87" s="1">
-        <v>4698273</v>
+        <v>3353746</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1">
-        <v>4700179</v>
+        <v>3355026</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B89" s="1">
-        <v>4704733</v>
+        <v>3356380</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B90" s="1">
-        <v>4705733</v>
+        <v>3357974</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1">
-        <v>4706330</v>
+        <v>3401617</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>40</v>
+      <c r="A92" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B92" s="1">
-        <v>4707818</v>
+        <v>44065892</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>40</v>
+      <c r="A93" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B93" s="1">
-        <v>4707886</v>
+        <v>44316225</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>40</v>
+      <c r="A94" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B94" s="1">
-        <v>4708724</v>
+        <v>46041435</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>40</v>
+      <c r="A95" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B95" s="1">
-        <v>4709164</v>
+        <v>46043656</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>40</v>
+      <c r="A96" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B96" s="1">
-        <v>4709476</v>
+        <v>46044394</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>40</v>
+      <c r="A97" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B97" s="1">
-        <v>4709709</v>
+        <v>46046129</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>40</v>
+      <c r="A98" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B98" s="1">
-        <v>4710175</v>
+        <v>46046919</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>40</v>
+      <c r="A99" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B99" s="1">
-        <v>4710561</v>
+        <v>46048996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>40</v>
+      <c r="A100" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B100" s="1">
-        <v>4713276</v>
+        <v>46049458</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>40</v>
+      <c r="A101" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B101" s="1">
-        <v>4714069</v>
+        <v>46055166</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>40</v>
+      <c r="A102" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B102" s="1">
-        <v>4716664</v>
+        <v>46064538</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>40</v>
+      <c r="A103" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B103" s="1">
-        <v>4717265</v>
+        <v>46132944</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>40</v>
+      <c r="A104" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B104" s="1">
-        <v>4718108</v>
+        <v>46138869</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>40</v>
+      <c r="A105" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B105" s="1">
-        <v>4722704</v>
+        <v>48046647</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>40</v>
+      <c r="A106" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B106" s="1">
-        <v>4726878</v>
+        <v>48047095</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B107" s="1">
-        <v>2284187</v>
+        <v>2021365</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B108" s="1">
-        <v>2286837</v>
+        <v>2040279</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B109" s="1">
-        <v>2289468</v>
+        <v>2060730</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B110" s="1">
-        <v>2360471</v>
+        <v>2063272</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B111" s="1">
-        <v>2487042</v>
+        <v>2125821</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B112" s="1">
-        <v>2502299</v>
+        <v>2125923</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B113" s="1">
-        <v>2504044</v>
+        <v>2570415</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B114" s="1">
-        <v>2504934</v>
+        <v>2572838</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B115" s="1">
-        <v>2506452</v>
+        <v>2573931</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B116" s="1">
-        <v>2508169</v>
+        <v>2591736</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B117" s="1">
-        <v>2560799</v>
+        <v>2627226</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B118" s="1">
-        <v>2562338</v>
+        <v>2884543</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B119" s="1">
-        <v>2565455</v>
+        <v>2916368</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B120" s="1">
-        <v>2569562</v>
+        <v>2917386</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B121" s="1">
-        <v>2962852</v>
+        <v>3101757</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B122" s="1">
-        <v>3118109</v>
+        <v>3102585</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B123" s="1">
-        <v>3170300</v>
+        <v>3329838</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B124" s="1">
-        <v>3260659</v>
+        <v>3512780</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B125" s="1">
-        <v>3480478</v>
+        <v>3515553</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1">
-        <v>3526435</v>
+        <v>3515759</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B127" s="1">
-        <v>3743476</v>
+        <v>3516590</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B128" s="1">
-        <v>3750212</v>
+        <v>3516816</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B129" s="1">
-        <v>3751773</v>
+        <v>3517525</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B130" s="1">
-        <v>3761707</v>
+        <v>3517809</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B131" s="1">
-        <v>3763712</v>
+        <v>3518076</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B132" s="1">
-        <v>3824820</v>
+        <v>3518185</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B133" s="1">
-        <v>3840407</v>
+        <v>3519392</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B134" s="1">
-        <v>2548354</v>
+        <v>3519772</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B135" s="1">
-        <v>3402333</v>
+        <v>3520056</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B136" s="1">
-        <v>3403222</v>
+        <v>3521485</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B137" s="1">
-        <v>2117630</v>
+        <v>3522079</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B138" s="1">
-        <v>2140465</v>
+        <v>3522141</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B139" s="1">
-        <v>2270639</v>
+        <v>3522477</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B140" s="1">
-        <v>2276492</v>
+        <v>3522954</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B141" s="1">
-        <v>2295553</v>
+        <v>3523121</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B142" s="1">
-        <v>2295584</v>
+        <v>3523182</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B143" s="1">
-        <v>2295932</v>
+        <v>3523360</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B144" s="1">
-        <v>2296442</v>
+        <v>3523405</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B145" s="1">
-        <v>2299587</v>
+        <v>3523632</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B146" s="1">
-        <v>2386090</v>
+        <v>3523816</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B147" s="1">
-        <v>2501463</v>
+        <v>3524156</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B148" s="1">
-        <v>2501771</v>
+        <v>3542129</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B149" s="1">
-        <v>2503323</v>
+        <v>3555367</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B150" s="1">
-        <v>2504453</v>
+        <v>3598364</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B151" s="1">
-        <v>2505676</v>
+        <v>4360130</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B152" s="1">
-        <v>2771522</v>
+        <v>4698273</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B153" s="1">
-        <v>2772951</v>
+        <v>4700179</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B154" s="1">
-        <v>3302443</v>
+        <v>4704733</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B155" s="1">
-        <v>3311894</v>
+        <v>4705733</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B156" s="1">
-        <v>3347021</v>
+        <v>4706330</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B157" s="1">
-        <v>3351274</v>
+        <v>4707818</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B158" s="1">
-        <v>3351741</v>
+        <v>4707886</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B159" s="1">
-        <v>3353135</v>
+        <v>4708724</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B160" s="1">
-        <v>3353171</v>
+        <v>4709164</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B161" s="1">
-        <v>3353746</v>
+        <v>4709476</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B162" s="1">
-        <v>3355026</v>
+        <v>4709709</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B163" s="1">
-        <v>3356380</v>
+        <v>4710175</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B164" s="1">
-        <v>3357974</v>
+        <v>4710561</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B165" s="1">
-        <v>3401617</v>
+        <v>4713276</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B166" s="1">
-        <v>3401829</v>
+        <v>2680881</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B167" s="1">
-        <v>3402816</v>
+        <v>3831281</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B168" s="1">
-        <v>3407499</v>
+        <v>4440135</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B169" s="1">
-        <v>3408499</v>
+        <v>4500061</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B170" s="1">
-        <v>3420838</v>
+        <v>4500406</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B171" s="1">
-        <v>3420949</v>
+        <v>4669268</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B172" s="1">
-        <v>3425160</v>
+        <v>4760394</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B173" s="1">
-        <v>3425637</v>
+        <v>2220581</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B174" s="1">
-        <v>3426088</v>
+        <v>2222076</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B175" s="1">
-        <v>3428187</v>
+        <v>2224330</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B176" s="1">
-        <v>3428245</v>
+        <v>2631208</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B177" s="1">
-        <v>3428813</v>
+        <v>2632143</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B178" s="1">
-        <v>3429105</v>
+        <v>2632514</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B179" s="1">
-        <v>3486627</v>
+        <v>2635852</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B180" s="1">
-        <v>3486808</v>
+        <v>2635859</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B181" s="1">
-        <v>3486887</v>
+        <v>3440474</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B182" s="1">
-        <v>3487912</v>
+        <v>3441953</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B183" s="1">
-        <v>3693026</v>
+        <v>3445538</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B184" s="1">
-        <v>3723668</v>
+        <v>3831119</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B185" s="1">
-        <v>3956254</v>
+        <v>3834619</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B186" s="1">
-        <v>3960433</v>
+        <v>3835903</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B187" s="1">
-        <v>3961165</v>
+        <v>3477448</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B188" s="1">
-        <v>3961247</v>
+        <v>3400019</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B189" s="1">
-        <v>2030488</v>
+        <v>3965761</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B190" s="1">
-        <v>2030913</v>
+        <v>3536314</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B191" s="1">
-        <v>2031606</v>
+        <v>3504320</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B192" s="1">
-        <v>2032128</v>
+        <v>2171764</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B193" s="1">
-        <v>2032176</v>
+        <v>2764471</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B194" s="1">
-        <v>2033420</v>
+        <v>2953571</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B195" s="1">
-        <v>2033648</v>
+        <v>2133086</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B196" s="1">
-        <v>2033715</v>
+        <v>2229632</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,575 +1943,575 @@
         <v>50</v>
       </c>
       <c r="B197" s="1">
-        <v>2033906</v>
+        <v>2546940</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B198" s="1">
-        <v>2034044</v>
+        <v>2394165</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B199" s="1">
-        <v>2034896</v>
+        <v>2400205</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B200" s="1">
-        <v>2035161</v>
+        <v>2401198</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B201" s="1">
-        <v>2035669</v>
+        <v>2401476</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1">
-        <v>2036726</v>
+        <v>2401725</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B203" s="1">
-        <v>2036741</v>
+        <v>2402245</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B204" s="1">
-        <v>2037354</v>
+        <v>2402510</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B205" s="1">
-        <v>2038117</v>
+        <v>2402705</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B206" s="1">
-        <v>2038300</v>
+        <v>2403050</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B207" s="1">
-        <v>2038652</v>
+        <v>2403915</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B208" s="1">
-        <v>2050344</v>
+        <v>2403979</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B209" s="1">
-        <v>2050499</v>
+        <v>2405054</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B210" s="1">
-        <v>2050887</v>
+        <v>2405524</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B211" s="1">
-        <v>2051794</v>
+        <v>2420155</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B212" s="1">
-        <v>2052198</v>
+        <v>2420640</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B213" s="1">
-        <v>2052665</v>
+        <v>2420651</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B214" s="1">
-        <v>2053019</v>
+        <v>2420712</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B215" s="1">
-        <v>2053257</v>
+        <v>2421892</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B216" s="1">
-        <v>2111108</v>
+        <v>2422598</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B217" s="1">
-        <v>2112904</v>
+        <v>2423065</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B218" s="1">
-        <v>2113318</v>
+        <v>2423270</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B219" s="1">
-        <v>2113673</v>
+        <v>2423700</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B220" s="1">
-        <v>2130675</v>
+        <v>2423946</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B221" s="1">
-        <v>2130927</v>
+        <v>2424007</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B222" s="1">
-        <v>2133296</v>
+        <v>2424524</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B223" s="1">
-        <v>2134111</v>
+        <v>2424849</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B224" s="1">
-        <v>2134127</v>
+        <v>2425549</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B225" s="1">
-        <v>2150353</v>
+        <v>2425917</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B226" s="1">
-        <v>2150787</v>
+        <v>2426285</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B227" s="1">
-        <v>2156282</v>
+        <v>2427058</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B228" s="1">
-        <v>2170385</v>
+        <v>2427067</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B229" s="1">
-        <v>2173613</v>
+        <v>2427118</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B230" s="1">
-        <v>2174113</v>
+        <v>2427364</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B231" s="1">
-        <v>2190706</v>
+        <v>2428118</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B232" s="1">
-        <v>2191126</v>
+        <v>2428834</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B233" s="1">
-        <v>2192112</v>
+        <v>2437438</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B234" s="1">
-        <v>2193544</v>
+        <v>2441028</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B235" s="1">
-        <v>2593931</v>
+        <v>2450303</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B236" s="1">
-        <v>2595516</v>
+        <v>2451021</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B237" s="1">
-        <v>2680881</v>
+        <v>2451230</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B238" s="1">
-        <v>3831281</v>
+        <v>2452580</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B239" s="1">
-        <v>4440135</v>
+        <v>2452983</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B240" s="1">
-        <v>4500061</v>
+        <v>2454343</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B241" s="1">
-        <v>4500406</v>
+        <v>2455109</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B242" s="1">
-        <v>4669268</v>
+        <v>2456946</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B243" s="1">
-        <v>4760394</v>
+        <v>2457235</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B244" s="1">
-        <v>2220581</v>
+        <v>2475255</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B245" s="1">
-        <v>2222076</v>
+        <v>2475533</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B246" s="1">
-        <v>2224330</v>
+        <v>2478000</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B247" s="1">
-        <v>2631208</v>
+        <v>2492056</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B248" s="1">
-        <v>2632143</v>
+        <v>2493909</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B249" s="1">
-        <v>2632514</v>
+        <v>2550029</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B250" s="1">
-        <v>2635852</v>
+        <v>2553842</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B251" s="1">
-        <v>2635859</v>
+        <v>2560492</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B252" s="1">
-        <v>3440474</v>
+        <v>2560711</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B253" s="1">
-        <v>3441953</v>
+        <v>2561042</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B254" s="1">
-        <v>3445538</v>
+        <v>2561865</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B255" s="1">
-        <v>3831119</v>
+        <v>2565043</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B256" s="1">
-        <v>3834619</v>
+        <v>2567257</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B257" s="1">
-        <v>3835903</v>
+        <v>2572664</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B258" s="1">
-        <v>3477448</v>
+        <v>2582164</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B259" s="1">
-        <v>3400019</v>
+        <v>2598067</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B260" s="1">
-        <v>3965761</v>
+        <v>2602303</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B261" s="1">
-        <v>3536314</v>
+        <v>3102060</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B262" s="1">
-        <v>3504320</v>
+        <v>3125316</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B263" s="1">
-        <v>2171764</v>
+        <v>3230420</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B264" s="1">
-        <v>2764471</v>
+        <v>3236111</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B265" s="1">
-        <v>2953571</v>
+        <v>3263308</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B266" s="1">
-        <v>2133086</v>
+        <v>3320587</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B267" s="1">
-        <v>2229632</v>
+        <v>3320906</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B268" s="1">
-        <v>2546940</v>
+        <v>3322683</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="B269" s="1">
-        <v>2394165</v>
+        <v>3322960</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="B270" s="1">
-        <v>2400205</v>
+        <v>3323069</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="B271" s="1">
-        <v>2401198</v>
+        <v>3329326</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="B272" s="1">
-        <v>2401476</v>
+        <v>3329552</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="B273" s="1">
-        <v>2401725</v>
+        <v>3348179</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="B274" s="1">
-        <v>2402245</v>
+        <v>3348305</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="B275" s="1">
-        <v>2402510</v>
+        <v>3348402</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="B276" s="1">
-        <v>2402705</v>
+        <v>3370571</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="1">
-        <v>2403050</v>
+        <v>3370808</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="B278" s="1">
-        <v>2403915</v>
+        <v>3370820</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2599,7 @@
         <v>13</v>
       </c>
       <c r="B279" s="1">
-        <v>2403979</v>
+        <v>3371274</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2607,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="1">
-        <v>2405054</v>
+        <v>3371668</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2615,7 @@
         <v>13</v>
       </c>
       <c r="B281" s="1">
-        <v>2405524</v>
+        <v>3371737</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="B282" s="1">
-        <v>2420155</v>
+        <v>3371922</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="B283" s="1">
-        <v>2420640</v>
+        <v>3372568</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="B284" s="1">
-        <v>2420651</v>
+        <v>3372721</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="B285" s="1">
-        <v>2420712</v>
+        <v>3372917</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2655,7 @@
         <v>13</v>
       </c>
       <c r="B286" s="1">
-        <v>2421892</v>
+        <v>3374238</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2663,7 @@
         <v>13</v>
       </c>
       <c r="B287" s="1">
-        <v>2422598</v>
+        <v>3374331</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="B288" s="1">
-        <v>2423065</v>
+        <v>3374775</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="B289" s="1">
-        <v>2423270</v>
+        <v>3374802</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="B290" s="1">
-        <v>2423700</v>
+        <v>3375626</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="B291" s="1">
-        <v>2423946</v>
+        <v>3376339</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="B292" s="1">
-        <v>2424007</v>
+        <v>3376345</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="B293" s="1">
-        <v>2424524</v>
+        <v>3376348</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B294" s="1">
-        <v>2424849</v>
+        <v>3376545</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B295" s="1">
-        <v>2425549</v>
+        <v>3410355</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="B296" s="1">
-        <v>2425917</v>
+        <v>3410372</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2743,7 @@
         <v>13</v>
       </c>
       <c r="B297" s="1">
-        <v>2426285</v>
+        <v>3411237</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="B298" s="1">
-        <v>2427058</v>
+        <v>3411315</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2759,7 @@
         <v>13</v>
       </c>
       <c r="B299" s="1">
-        <v>2427067</v>
+        <v>3411639</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="B300" s="1">
-        <v>2427118</v>
+        <v>3412981</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2775,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="1">
-        <v>2427364</v>
+        <v>3413126</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="B302" s="1">
-        <v>2428118</v>
+        <v>3414241</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2791,7 @@
         <v>13</v>
       </c>
       <c r="B303" s="1">
-        <v>2428834</v>
+        <v>3417107</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="B304" s="1">
-        <v>2437438</v>
+        <v>3417220</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="B305" s="1">
-        <v>2441028</v>
+        <v>3418084</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="B306" s="1">
-        <v>2450303</v>
+        <v>3880710</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,579 +2823,2950 @@
         <v>13</v>
       </c>
       <c r="B307" s="1">
-        <v>2451021</v>
+        <v>3881430</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B308" s="1">
-        <v>2451230</v>
+        <v>3401829</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B309" s="1">
-        <v>2452580</v>
+        <v>3402816</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B310" s="1">
-        <v>2452983</v>
+        <v>3407499</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B311" s="1">
-        <v>2454343</v>
+        <v>3408499</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B312" s="1">
-        <v>2455109</v>
+        <v>3420838</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B313" s="1">
-        <v>2456946</v>
+        <v>3420949</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B314" s="1">
-        <v>2457235</v>
+        <v>3425160</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B315" s="1">
-        <v>2475255</v>
+        <v>3425637</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B316" s="1">
-        <v>2475533</v>
+        <v>3426088</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B317" s="1">
-        <v>2478000</v>
+        <v>3428187</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B318" s="1">
-        <v>2492056</v>
+        <v>3428245</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B319" s="1">
-        <v>2493909</v>
+        <v>3428813</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B320" s="1">
-        <v>2550029</v>
+        <v>3429105</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B321" s="1">
-        <v>2553842</v>
+        <v>3486627</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B322" s="1">
-        <v>2560492</v>
+        <v>3486808</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B323" s="1">
-        <v>2560711</v>
+        <v>3486887</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B324" s="1">
-        <v>2561042</v>
+        <v>3487912</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B325" s="1">
-        <v>2561865</v>
+        <v>3693026</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B326" s="1">
-        <v>2565043</v>
+        <v>3723668</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B327" s="1">
-        <v>2567257</v>
+        <v>3956254</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B328" s="1">
-        <v>2572664</v>
+        <v>3960433</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B329" s="1">
-        <v>2582164</v>
+        <v>3961165</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B330" s="1">
-        <v>2598067</v>
+        <v>3961247</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B331" s="1">
-        <v>2602303</v>
+        <v>2030488</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B332" s="1">
-        <v>3102060</v>
+        <v>2030913</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B333" s="1">
-        <v>3125316</v>
+        <v>2031606</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B334" s="1">
-        <v>3230420</v>
+        <v>2032128</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B335" s="1">
-        <v>3236111</v>
+        <v>2032176</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B336" s="1">
-        <v>3263308</v>
+        <v>2033420</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B337" s="1">
-        <v>3320587</v>
+        <v>2033648</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B338" s="1">
-        <v>3320906</v>
+        <v>2033715</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B339" s="1">
-        <v>3322683</v>
+        <v>2033906</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B340" s="1">
-        <v>3322960</v>
+        <v>2034044</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B341" s="1">
-        <v>3323069</v>
+        <v>2034896</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B342" s="1">
-        <v>3329326</v>
+        <v>2035161</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B343" s="1">
-        <v>3329552</v>
+        <v>2035669</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B344" s="1">
-        <v>3348179</v>
+        <v>2036726</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B345" s="1">
-        <v>3348305</v>
+        <v>2036741</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B346" s="1">
-        <v>3348402</v>
+        <v>2037354</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B347" s="1">
-        <v>3370571</v>
+        <v>2038117</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B348" s="1">
-        <v>3370808</v>
+        <v>2038300</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B349" s="1">
-        <v>3370820</v>
+        <v>2038652</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B350" s="1">
-        <v>3371274</v>
+        <v>2050344</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B351" s="1">
-        <v>3371668</v>
+        <v>2050499</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B352" s="1">
-        <v>3371737</v>
+        <v>2050887</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B353" s="1">
-        <v>3371922</v>
+        <v>2051794</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B354" s="1">
-        <v>3372568</v>
+        <v>2052198</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B355" s="1">
-        <v>3372721</v>
+        <v>2052665</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B356" s="1">
-        <v>3372917</v>
+        <v>2053019</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B357" s="1">
-        <v>3374238</v>
+        <v>2053257</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B358" s="1">
-        <v>3374331</v>
+        <v>2111108</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B359" s="1">
-        <v>3374775</v>
+        <v>2112904</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B360" s="1">
-        <v>3374802</v>
+        <v>2113318</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B361" s="1">
-        <v>3375626</v>
+        <v>2113673</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B362" s="1">
-        <v>3376339</v>
+        <v>2130675</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B363" s="1">
-        <v>3376345</v>
+        <v>2130927</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B364" s="1">
-        <v>3376348</v>
+        <v>2133296</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B365" s="1">
-        <v>3376545</v>
+        <v>2134111</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B366" s="1">
-        <v>3410355</v>
+        <v>2134127</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B367" s="1">
-        <v>3410372</v>
+        <v>2150353</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B368" s="1">
-        <v>3411237</v>
+        <v>2150787</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B369" s="1">
-        <v>3411315</v>
+        <v>2156282</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B370" s="1">
-        <v>3411639</v>
+        <v>2170385</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B371" s="1">
-        <v>3412981</v>
+        <v>2173613</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B372" s="1">
-        <v>3413126</v>
+        <v>2174113</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B373" s="1">
-        <v>3414241</v>
+        <v>2190706</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B374" s="1">
-        <v>3417107</v>
+        <v>2191126</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B375" s="1">
-        <v>3417220</v>
+        <v>2192112</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B376" s="1">
-        <v>3418084</v>
+        <v>2193544</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B377" s="1">
-        <v>3880710</v>
+        <v>2593931</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B378" s="1">
-        <v>3881430</v>
+        <v>2595516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44065892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44316225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46041435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46043656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>46044394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>46046129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46046919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46048996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46049458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46055166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46064538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46132944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46138869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>48046647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48047095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2021365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2040279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2060730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2063272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2125821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2125923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2570415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2572838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2573931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2591736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2627226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2884543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2916368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2917386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3101757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3102585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3329838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3512780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3515553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3515759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3516590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3516816</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3517525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3517809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3518076</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3518185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3519392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3519772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3520056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3521485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3522079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3522141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3522477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3522954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3523121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3523182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3523360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3523405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3523632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3523816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3524156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3542129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3555367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3598364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4360130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4698273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4700179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4704733</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4705733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4706330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4707818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4707886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4708724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4709164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4709476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4709709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4710175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4710561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4713276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B143"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2680881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3831281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4440135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4500061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4500406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4669268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4760394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2220581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2222076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2224330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2631208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2632143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2632514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2635852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2635859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3440474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3441953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3445538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3831119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3834619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3835903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3477448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3400019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3965761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3536314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3504320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2171764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2764471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2953571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2133086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2229632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2546940</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2394165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2400205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2401198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2401476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2401725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2402245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2402510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2402705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2403050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2403915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2403979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2405054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2405524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2420155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2420640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2420651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2420712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2421892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2422598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2423065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2423270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2423700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2423946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2424007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2424524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2424849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2425549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2425917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2426285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2427058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2427067</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2427118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2427364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2428118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2428834</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2437438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2441028</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2450303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2451021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2451230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2452580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2452983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2454343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2455109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2456946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2457235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2475255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2475533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2478000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2492056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2493909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2550029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2553842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2560492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2560711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2561042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2561865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2565043</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2567257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2572664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2582164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2598067</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2602303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3102060</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3125316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>13</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3230420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3236111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3263308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3320587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3320906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3322683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3322960</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3323069</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3329326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3329552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3348179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3348305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3348402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3370571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3370808</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3370820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3371274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3371668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3371737</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3371922</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3372568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3372721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3372917</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3374238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>13</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3374331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3374775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3374802</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3375626</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3376339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3376345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3376348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3376545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3410355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3410372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3411237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3411315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3411639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3412981</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3413126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3414241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3417107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3417220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3418084</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3880710</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3881430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3401829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3402816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3407499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3408499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3420838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3420949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3425160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3425637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3426088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3428187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3428245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3428813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3429105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3486627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3486808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3486887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3487912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3693026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3723668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3956254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3960433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3961165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3961247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2030488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2030913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2031606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2032128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2032176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2033420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2033648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2033715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2033906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2034044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2034896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2035161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2035669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2036726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2036741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2037354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2038117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2038300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2038652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2050344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2050499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2050887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2051794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2052198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2052665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2053019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2053257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2111108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2112904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2113318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2113673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2130675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>50</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2130927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2133296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2134111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2134127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>50</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2150353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2150787</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>50</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2156282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>50</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2170385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>50</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2173613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2174113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>50</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2190706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>50</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2191126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>50</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2192112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2193544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>50</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2593931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>50</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2595516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/yas.xlsx
+++ b/yas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -357,8 +357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
